--- a/Planejamento/Projeto de pesquisa_PGEBM.xlsx
+++ b/Planejamento/Projeto de pesquisa_PGEBM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{08218AA7-3D97-450B-A930-44AD2FBB969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F244AC83-5738-4312-84C3-9B3250E9469C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC238716-E7A9-4302-A4C0-94FECE884FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,23 +1178,23 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1586,10 +1586,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1860,7 +1856,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1898,106 +1894,106 @@
       <c r="B3" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="64">
+      <c r="D3" s="64"/>
+      <c r="E3" s="62">
         <v>46928</v>
       </c>
-      <c r="F3" s="64"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:63" ht="30" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="59">
         <f>H5</f>
         <v>46923</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="61">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="59">
         <f>O5</f>
         <v>46930</v>
       </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="61">
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="59">
         <f>V5</f>
         <v>46937</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="61">
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="59">
         <f>AC5</f>
         <v>46944</v>
       </c>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="61">
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="59">
         <f>AJ5</f>
         <v>46951</v>
       </c>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="61">
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="59">
         <f>AQ5</f>
         <v>46958</v>
       </c>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="61">
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="59">
         <f>AX5</f>
         <v>46965</v>
       </c>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="61">
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="61"/>
+      <c r="BE4" s="59">
         <f>BE5</f>
         <v>46972</v>
       </c>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="63"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="61"/>
     </row>
     <row r="5" spans="1:63" ht="15" customHeight="1">
       <c r="A5" s="34" t="s">
@@ -4414,17 +4410,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4593,35 +4589,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4909,27 +4876,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4948,4 +4924,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planejamento/Projeto de pesquisa_PGEBM.xlsx
+++ b/Planejamento/Projeto de pesquisa_PGEBM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC238716-E7A9-4302-A4C0-94FECE884FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{08218AA7-3D97-450B-A930-44AD2FBB969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41037357-44CC-428C-AC4B-540742598860}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento projeto PGEBM" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Crie um cronograma de projeto nesta planilha.
 Digite o título desse projeto na célula B1. 
@@ -132,9 +132,6 @@
     <t>Tarefa 5</t>
   </si>
   <si>
-    <t>Título Fase 4</t>
-  </si>
-  <si>
     <t>Insira novas linhas ACIMA desta</t>
   </si>
   <si>
@@ -216,37 +213,49 @@
     <t>Prof. Renato Watanabe</t>
   </si>
   <si>
-    <t>Definir tema do projeto de pesquisa, material artigos.</t>
-  </si>
-  <si>
     <t>Tiago</t>
   </si>
   <si>
-    <t xml:space="preserve">Artigo: MSD modelling of the human body to study running and hopping. </t>
-  </si>
-  <si>
-    <t>Artigo: The feasibility of predicting groung reaction forces during running from a trunk accelerometry drinve MSD model.</t>
-  </si>
-  <si>
-    <t>Artigo: Bone stress in runners with tibial stress fracture.</t>
-  </si>
-  <si>
-    <t>Verificar se há artigos atuais que tratam do tema do projeto de pesquisa.</t>
-  </si>
-  <si>
-    <t>Validar tema do projeto de pesquisa</t>
-  </si>
-  <si>
-    <t>Renato</t>
-  </si>
-  <si>
     <t>Projeto de pesquisa - Mestrado em Engenharia Biomédica</t>
   </si>
   <si>
-    <t>Elaboração do pré projeto para inscrição no processo seletivo (justificativa, objetivo, método e referências)</t>
-  </si>
-  <si>
     <t>Revisão bibliográfica</t>
+  </si>
+  <si>
+    <t>Dados</t>
+  </si>
+  <si>
+    <t>Download dos dados publicos</t>
+  </si>
+  <si>
+    <t>Github: carregar uma amostra total de dados para forces e marker e 3ds</t>
+  </si>
+  <si>
+    <t>Vscode: carregar dados para uma amostra, marker e force (amostra 8)</t>
+  </si>
+  <si>
+    <t>Bibliografia</t>
+  </si>
+  <si>
+    <t>Reler os artigos relevantes</t>
+  </si>
+  <si>
+    <t>Encontrar as equações que regem a força de reação</t>
+  </si>
+  <si>
+    <t>Modelamento</t>
+  </si>
+  <si>
+    <t>Estudo de cargas associadas às fraturas por estresse tibial em corredores através de modelos biomecânicos</t>
+  </si>
+  <si>
+    <t>Reunião de acompanhamento com o orientador</t>
+  </si>
+  <si>
+    <t>Reunião 1</t>
+  </si>
+  <si>
+    <t>Reunião 2</t>
   </si>
 </sst>
 </file>
@@ -262,7 +271,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="ddd\,\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +535,24 @@
     </font>
     <font>
       <b/>
+      <sz val="22"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="3" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1016,7 +1041,7 @@
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1116,9 +1141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,7 +1197,13 @@
     <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1492,7 +1520,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>137396</xdr:colOff>
+      <xdr:colOff>137395</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>316134</xdr:rowOff>
     </xdr:to>
@@ -1584,6 +1612,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1852,384 +1884,387 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="63" width="3.28515625" customWidth="1"/>
-    <col min="68" max="69" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="63" width="3.33203125" customWidth="1"/>
+    <col min="68" max="69" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="9.9499999999999993" customHeight="1"/>
-    <row r="2" spans="1:63" ht="30" customHeight="1">
+    <row r="1" spans="1:63" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>53</v>
+      <c r="B2" s="57" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="22"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="42"/>
+      <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1">
+    <row r="3" spans="1:63" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="62">
-        <v>46928</v>
-      </c>
-      <c r="F3" s="62"/>
+        <v>55</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="63">
+        <v>45597</v>
+      </c>
+      <c r="F3" s="63"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1">
+    <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="64"/>
+      <c r="B4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="65"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="60">
         <f>H5</f>
-        <v>46923</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="59">
+        <v>45593</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="60">
         <f>O5</f>
-        <v>46930</v>
-      </c>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="59">
+        <v>45600</v>
+      </c>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="60">
         <f>V5</f>
-        <v>46937</v>
-      </c>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="59">
+        <v>45607</v>
+      </c>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="60">
         <f>AC5</f>
-        <v>46944</v>
-      </c>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="59">
+        <v>45614</v>
+      </c>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="60">
         <f>AJ5</f>
-        <v>46951</v>
-      </c>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="59">
+        <v>45621</v>
+      </c>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="60">
         <f>AQ5</f>
-        <v>46958</v>
-      </c>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="59">
+        <v>45628</v>
+      </c>
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="60">
         <f>AX5</f>
-        <v>46965</v>
-      </c>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="59">
+        <v>45635</v>
+      </c>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="61"/>
+      <c r="BA4" s="61"/>
+      <c r="BB4" s="61"/>
+      <c r="BC4" s="61"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="60">
         <f>BE5</f>
-        <v>46972</v>
-      </c>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="61"/>
+        <v>45642</v>
+      </c>
+      <c r="BF4" s="61"/>
+      <c r="BG4" s="61"/>
+      <c r="BH4" s="61"/>
+      <c r="BI4" s="61"/>
+      <c r="BJ4" s="61"/>
+      <c r="BK4" s="62"/>
     </row>
-    <row r="5" spans="1:63" ht="15" customHeight="1">
+    <row r="5" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="H5" s="47">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="H5" s="46">
         <f>Início_do_projeto-WEEKDAY(Início_do_projeto,1)+2+7*(Semana_de_exibição-1)</f>
-        <v>46923</v>
-      </c>
-      <c r="I5" s="48">
+        <v>45593</v>
+      </c>
+      <c r="I5" s="47">
         <f>H5+1</f>
-        <v>46924</v>
-      </c>
-      <c r="J5" s="48">
+        <v>45594</v>
+      </c>
+      <c r="J5" s="47">
         <f t="shared" ref="J5:AW5" si="0">I5+1</f>
-        <v>46925</v>
-      </c>
-      <c r="K5" s="48">
+        <v>45595</v>
+      </c>
+      <c r="K5" s="47">
         <f t="shared" si="0"/>
-        <v>46926</v>
-      </c>
-      <c r="L5" s="48">
+        <v>45596</v>
+      </c>
+      <c r="L5" s="47">
         <f t="shared" si="0"/>
-        <v>46927</v>
-      </c>
-      <c r="M5" s="48">
+        <v>45597</v>
+      </c>
+      <c r="M5" s="47">
         <f t="shared" si="0"/>
-        <v>46928</v>
-      </c>
-      <c r="N5" s="49">
+        <v>45598</v>
+      </c>
+      <c r="N5" s="48">
         <f t="shared" si="0"/>
-        <v>46929</v>
-      </c>
-      <c r="O5" s="47">
+        <v>45599</v>
+      </c>
+      <c r="O5" s="46">
         <f>N5+1</f>
-        <v>46930</v>
-      </c>
-      <c r="P5" s="48">
+        <v>45600</v>
+      </c>
+      <c r="P5" s="47">
         <f>O5+1</f>
-        <v>46931</v>
-      </c>
-      <c r="Q5" s="48">
+        <v>45601</v>
+      </c>
+      <c r="Q5" s="47">
         <f t="shared" si="0"/>
-        <v>46932</v>
-      </c>
-      <c r="R5" s="48">
+        <v>45602</v>
+      </c>
+      <c r="R5" s="47">
         <f t="shared" si="0"/>
-        <v>46933</v>
-      </c>
-      <c r="S5" s="48">
+        <v>45603</v>
+      </c>
+      <c r="S5" s="47">
         <f t="shared" si="0"/>
-        <v>46934</v>
-      </c>
-      <c r="T5" s="48">
+        <v>45604</v>
+      </c>
+      <c r="T5" s="47">
         <f t="shared" si="0"/>
-        <v>46935</v>
-      </c>
-      <c r="U5" s="49">
+        <v>45605</v>
+      </c>
+      <c r="U5" s="48">
         <f t="shared" si="0"/>
-        <v>46936</v>
-      </c>
-      <c r="V5" s="47">
+        <v>45606</v>
+      </c>
+      <c r="V5" s="46">
         <f>U5+1</f>
-        <v>46937</v>
-      </c>
-      <c r="W5" s="48">
+        <v>45607</v>
+      </c>
+      <c r="W5" s="47">
         <f>V5+1</f>
-        <v>46938</v>
-      </c>
-      <c r="X5" s="48">
+        <v>45608</v>
+      </c>
+      <c r="X5" s="47">
         <f t="shared" si="0"/>
-        <v>46939</v>
-      </c>
-      <c r="Y5" s="48">
+        <v>45609</v>
+      </c>
+      <c r="Y5" s="47">
         <f t="shared" si="0"/>
-        <v>46940</v>
-      </c>
-      <c r="Z5" s="48">
+        <v>45610</v>
+      </c>
+      <c r="Z5" s="47">
         <f t="shared" si="0"/>
-        <v>46941</v>
-      </c>
-      <c r="AA5" s="48">
+        <v>45611</v>
+      </c>
+      <c r="AA5" s="47">
         <f t="shared" si="0"/>
-        <v>46942</v>
-      </c>
-      <c r="AB5" s="49">
+        <v>45612</v>
+      </c>
+      <c r="AB5" s="48">
         <f t="shared" si="0"/>
-        <v>46943</v>
-      </c>
-      <c r="AC5" s="47">
+        <v>45613</v>
+      </c>
+      <c r="AC5" s="46">
         <f>AB5+1</f>
-        <v>46944</v>
-      </c>
-      <c r="AD5" s="48">
+        <v>45614</v>
+      </c>
+      <c r="AD5" s="47">
         <f>AC5+1</f>
-        <v>46945</v>
-      </c>
-      <c r="AE5" s="48">
+        <v>45615</v>
+      </c>
+      <c r="AE5" s="47">
         <f t="shared" si="0"/>
-        <v>46946</v>
-      </c>
-      <c r="AF5" s="48">
+        <v>45616</v>
+      </c>
+      <c r="AF5" s="47">
         <f t="shared" si="0"/>
-        <v>46947</v>
-      </c>
-      <c r="AG5" s="48">
+        <v>45617</v>
+      </c>
+      <c r="AG5" s="47">
         <f t="shared" si="0"/>
-        <v>46948</v>
-      </c>
-      <c r="AH5" s="48">
+        <v>45618</v>
+      </c>
+      <c r="AH5" s="47">
         <f t="shared" si="0"/>
-        <v>46949</v>
-      </c>
-      <c r="AI5" s="49">
+        <v>45619</v>
+      </c>
+      <c r="AI5" s="48">
         <f t="shared" si="0"/>
-        <v>46950</v>
-      </c>
-      <c r="AJ5" s="47">
+        <v>45620</v>
+      </c>
+      <c r="AJ5" s="46">
         <f>AI5+1</f>
-        <v>46951</v>
-      </c>
-      <c r="AK5" s="48">
+        <v>45621</v>
+      </c>
+      <c r="AK5" s="47">
         <f>AJ5+1</f>
-        <v>46952</v>
-      </c>
-      <c r="AL5" s="48">
+        <v>45622</v>
+      </c>
+      <c r="AL5" s="47">
         <f t="shared" si="0"/>
-        <v>46953</v>
-      </c>
-      <c r="AM5" s="48">
+        <v>45623</v>
+      </c>
+      <c r="AM5" s="47">
         <f t="shared" si="0"/>
-        <v>46954</v>
-      </c>
-      <c r="AN5" s="48">
+        <v>45624</v>
+      </c>
+      <c r="AN5" s="47">
         <f t="shared" si="0"/>
-        <v>46955</v>
-      </c>
-      <c r="AO5" s="48">
+        <v>45625</v>
+      </c>
+      <c r="AO5" s="47">
         <f t="shared" si="0"/>
-        <v>46956</v>
-      </c>
-      <c r="AP5" s="49">
+        <v>45626</v>
+      </c>
+      <c r="AP5" s="48">
         <f t="shared" si="0"/>
-        <v>46957</v>
-      </c>
-      <c r="AQ5" s="47">
+        <v>45627</v>
+      </c>
+      <c r="AQ5" s="46">
         <f>AP5+1</f>
-        <v>46958</v>
-      </c>
-      <c r="AR5" s="48">
+        <v>45628</v>
+      </c>
+      <c r="AR5" s="47">
         <f>AQ5+1</f>
-        <v>46959</v>
-      </c>
-      <c r="AS5" s="48">
+        <v>45629</v>
+      </c>
+      <c r="AS5" s="47">
         <f t="shared" si="0"/>
-        <v>46960</v>
-      </c>
-      <c r="AT5" s="48">
+        <v>45630</v>
+      </c>
+      <c r="AT5" s="47">
         <f t="shared" si="0"/>
-        <v>46961</v>
-      </c>
-      <c r="AU5" s="48">
+        <v>45631</v>
+      </c>
+      <c r="AU5" s="47">
         <f t="shared" si="0"/>
-        <v>46962</v>
-      </c>
-      <c r="AV5" s="48">
+        <v>45632</v>
+      </c>
+      <c r="AV5" s="47">
         <f t="shared" si="0"/>
-        <v>46963</v>
-      </c>
-      <c r="AW5" s="49">
+        <v>45633</v>
+      </c>
+      <c r="AW5" s="48">
         <f t="shared" si="0"/>
-        <v>46964</v>
-      </c>
-      <c r="AX5" s="47">
+        <v>45634</v>
+      </c>
+      <c r="AX5" s="46">
         <f>AW5+1</f>
-        <v>46965</v>
-      </c>
-      <c r="AY5" s="48">
+        <v>45635</v>
+      </c>
+      <c r="AY5" s="47">
         <f>AX5+1</f>
-        <v>46966</v>
-      </c>
-      <c r="AZ5" s="48">
+        <v>45636</v>
+      </c>
+      <c r="AZ5" s="47">
         <f t="shared" ref="AZ5:BD5" si="1">AY5+1</f>
-        <v>46967</v>
-      </c>
-      <c r="BA5" s="48">
+        <v>45637</v>
+      </c>
+      <c r="BA5" s="47">
         <f t="shared" si="1"/>
-        <v>46968</v>
-      </c>
-      <c r="BB5" s="48">
+        <v>45638</v>
+      </c>
+      <c r="BB5" s="47">
         <f t="shared" si="1"/>
-        <v>46969</v>
-      </c>
-      <c r="BC5" s="48">
+        <v>45639</v>
+      </c>
+      <c r="BC5" s="47">
         <f t="shared" si="1"/>
-        <v>46970</v>
-      </c>
-      <c r="BD5" s="49">
+        <v>45640</v>
+      </c>
+      <c r="BD5" s="48">
         <f t="shared" si="1"/>
-        <v>46971</v>
-      </c>
-      <c r="BE5" s="47">
+        <v>45641</v>
+      </c>
+      <c r="BE5" s="46">
         <f>BD5+1</f>
-        <v>46972</v>
-      </c>
-      <c r="BF5" s="48">
+        <v>45642</v>
+      </c>
+      <c r="BF5" s="47">
         <f>BE5+1</f>
-        <v>46973</v>
-      </c>
-      <c r="BG5" s="48">
+        <v>45643</v>
+      </c>
+      <c r="BG5" s="47">
         <f t="shared" ref="BG5:BK5" si="2">BF5+1</f>
-        <v>46974</v>
-      </c>
-      <c r="BH5" s="48">
+        <v>45644</v>
+      </c>
+      <c r="BH5" s="47">
         <f t="shared" si="2"/>
-        <v>46975</v>
-      </c>
-      <c r="BI5" s="48">
+        <v>45645</v>
+      </c>
+      <c r="BI5" s="47">
         <f t="shared" si="2"/>
-        <v>46976</v>
-      </c>
-      <c r="BJ5" s="48">
+        <v>45646</v>
+      </c>
+      <c r="BJ5" s="47">
         <f t="shared" si="2"/>
-        <v>46977</v>
-      </c>
-      <c r="BK5" s="49">
+        <v>45647</v>
+      </c>
+      <c r="BK5" s="48">
         <f t="shared" si="2"/>
-        <v>46978</v>
+        <v>45648</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
@@ -2237,19 +2272,19 @@
         <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="9" t="str">
         <f t="shared" ref="H6" si="3">LEFT(TEXT(H5,"ddd"),1)</f>
@@ -2476,7 +2511,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>5</v>
       </c>
@@ -2543,19 +2578,19 @@
       <c r="BJ7" s="19"/>
       <c r="BK7" s="19"/>
     </row>
-    <row r="8" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="38"/>
+      <c r="B8" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="37"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="13" t="str">
-        <f t="shared" ref="G8:G33" si="6">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
+        <f t="shared" ref="G8:G37" si="6">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
         <v/>
       </c>
       <c r="H8" s="19"/>
@@ -2615,24 +2650,28 @@
       <c r="BJ8" s="19"/>
       <c r="BK8" s="19"/>
     </row>
-    <row r="9" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="51">
+      <c r="B9" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="50">
         <v>0</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="13" t="str">
+      <c r="E9" s="52">
+        <v>45598</v>
+      </c>
+      <c r="F9" s="52">
+        <v>45598</v>
+      </c>
+      <c r="G9" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -2691,24 +2730,28 @@
       <c r="BJ9" s="19"/>
       <c r="BK9" s="19"/>
     </row>
-    <row r="10" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="51">
+      <c r="B10" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="50">
         <v>0</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="13" t="str">
+      <c r="E10" s="52">
+        <v>45598</v>
+      </c>
+      <c r="F10" s="52">
+        <v>45598</v>
+      </c>
+      <c r="G10" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -2767,22 +2810,26 @@
       <c r="BJ10" s="19"/>
       <c r="BK10" s="19"/>
     </row>
-    <row r="11" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33"/>
-      <c r="B11" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="51">
+      <c r="B11" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="50">
         <v>0</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="13" t="str">
+      <c r="E11" s="52">
+        <v>45598</v>
+      </c>
+      <c r="F11" s="52">
+        <v>45600</v>
+      </c>
+      <c r="G11" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -2841,19 +2888,13 @@
       <c r="BJ11" s="19"/>
       <c r="BK11" s="19"/>
     </row>
-    <row r="12" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33"/>
-      <c r="B12" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="51">
-        <v>0</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2915,19 +2956,13 @@
       <c r="BJ12" s="19"/>
       <c r="BK12" s="19"/>
     </row>
-    <row r="13" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33"/>
-      <c r="B13" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="51">
-        <v>0</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2989,17 +3024,17 @@
       <c r="BJ13" s="19"/>
       <c r="BK13" s="19"/>
     </row>
-    <row r="14" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="38"/>
+      <c r="B14" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="37"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3061,16 +3096,24 @@
       <c r="BJ14" s="19"/>
       <c r="BK14" s="19"/>
     </row>
-    <row r="15" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="13" t="str">
+      <c r="B15" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="52">
+        <v>45600</v>
+      </c>
+      <c r="F15" s="52">
+        <v>45604</v>
+      </c>
+      <c r="G15" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -3129,16 +3172,24 @@
       <c r="BJ15" s="19"/>
       <c r="BK15" s="19"/>
     </row>
-    <row r="16" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="13" t="str">
+      <c r="B16" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="52">
+        <v>45604</v>
+      </c>
+      <c r="F16" s="52">
+        <v>45606</v>
+      </c>
+      <c r="G16" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -3197,13 +3248,13 @@
       <c r="BJ16" s="19"/>
       <c r="BK16" s="19"/>
     </row>
-    <row r="17" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3265,13 +3316,13 @@
       <c r="BJ17" s="19"/>
       <c r="BK17" s="19"/>
     </row>
-    <row r="18" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3333,17 +3384,13 @@
       <c r="BJ18" s="19"/>
       <c r="BK18" s="19"/>
     </row>
-    <row r="19" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
-      <c r="B19" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3405,17 +3452,17 @@
       <c r="BJ19" s="19"/>
       <c r="BK19" s="19"/>
     </row>
-    <row r="20" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="38"/>
+      <c r="B20" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="37"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3477,16 +3524,22 @@
       <c r="BJ20" s="19"/>
       <c r="BK20" s="19"/>
     </row>
-    <row r="21" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="13" t="str">
+      <c r="B21" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="13" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -3545,13 +3598,13 @@
       <c r="BJ21" s="19"/>
       <c r="BK21" s="19"/>
     </row>
-    <row r="22" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3613,13 +3666,13 @@
       <c r="BJ22" s="19"/>
       <c r="BK22" s="19"/>
     </row>
-    <row r="23" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3681,13 +3734,13 @@
       <c r="BJ23" s="19"/>
       <c r="BK23" s="19"/>
     </row>
-    <row r="24" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="33"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3749,13 +3802,13 @@
       <c r="BJ24" s="19"/>
       <c r="BK24" s="19"/>
     </row>
-    <row r="25" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3817,17 +3870,17 @@
       <c r="BJ25" s="19"/>
       <c r="BK25" s="19"/>
     </row>
-    <row r="26" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="38"/>
+      <c r="B26" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="37"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3889,18 +3942,18 @@
       <c r="BJ26" s="19"/>
       <c r="BK26" s="19"/>
     </row>
-    <row r="27" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="33"/>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>26</v>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="G27" s="13" t="e">
         <f t="shared" si="6"/>
@@ -3963,18 +4016,18 @@
       <c r="BJ27" s="19"/>
       <c r="BK27" s="19"/>
     </row>
-    <row r="28" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="28" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="33"/>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>26</v>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="G28" s="13" t="e">
         <f t="shared" si="6"/>
@@ -4037,18 +4090,18 @@
       <c r="BJ28" s="19"/>
       <c r="BK28" s="19"/>
     </row>
-    <row r="29" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="33"/>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="53" t="s">
-        <v>26</v>
+      <c r="C29" s="49"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="G29" s="13" t="e">
         <f t="shared" si="6"/>
@@ -4111,18 +4164,18 @@
       <c r="BJ29" s="19"/>
       <c r="BK29" s="19"/>
     </row>
-    <row r="30" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="33"/>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>26</v>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="G30" s="13" t="e">
         <f t="shared" si="6"/>
@@ -4185,18 +4238,18 @@
       <c r="BJ30" s="19"/>
       <c r="BK30" s="19"/>
     </row>
-    <row r="31" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="31" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="33"/>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>26</v>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="G31" s="13" t="e">
         <f t="shared" si="6"/>
@@ -4259,15 +4312,15 @@
       <c r="BJ31" s="19"/>
       <c r="BK31" s="19"/>
     </row>
-    <row r="32" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A32" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+    <row r="32" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="33"/>
+      <c r="B32" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4329,84 +4382,369 @@
       <c r="BJ32" s="19"/>
       <c r="BK32" s="19"/>
     </row>
-    <row r="33" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A33" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="18" t="str">
+    <row r="33" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="33"/>
+      <c r="B33" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50">
+        <v>1</v>
+      </c>
+      <c r="E33" s="52">
+        <v>45597</v>
+      </c>
+      <c r="F33" s="52">
+        <v>45597</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="19"/>
+      <c r="AZ33" s="19"/>
+      <c r="BA33" s="19"/>
+      <c r="BB33" s="19"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="19"/>
+      <c r="BE33" s="19"/>
+      <c r="BF33" s="19"/>
+      <c r="BG33" s="19"/>
+      <c r="BH33" s="19"/>
+      <c r="BI33" s="19"/>
+      <c r="BJ33" s="19"/>
+      <c r="BK33" s="19"/>
+    </row>
+    <row r="34" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="33"/>
+      <c r="B34" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="52">
+        <v>45609</v>
+      </c>
+      <c r="F34" s="52">
+        <v>45609</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
+      <c r="BA34" s="19"/>
+      <c r="BB34" s="19"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="19"/>
+      <c r="BE34" s="19"/>
+      <c r="BF34" s="19"/>
+      <c r="BG34" s="19"/>
+      <c r="BH34" s="19"/>
+      <c r="BI34" s="19"/>
+      <c r="BJ34" s="19"/>
+      <c r="BK34" s="19"/>
+    </row>
+    <row r="35" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="33"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="19"/>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="19"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="19"/>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="19"/>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="19"/>
+      <c r="AS35" s="19"/>
+      <c r="AT35" s="19"/>
+      <c r="AU35" s="19"/>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="19"/>
+      <c r="AY35" s="19"/>
+      <c r="AZ35" s="19"/>
+      <c r="BA35" s="19"/>
+      <c r="BB35" s="19"/>
+      <c r="BC35" s="19"/>
+      <c r="BD35" s="19"/>
+      <c r="BE35" s="19"/>
+      <c r="BF35" s="19"/>
+      <c r="BG35" s="19"/>
+      <c r="BH35" s="19"/>
+      <c r="BI35" s="19"/>
+      <c r="BJ35" s="19"/>
+      <c r="BK35" s="19"/>
+    </row>
+    <row r="36" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="21"/>
-      <c r="AG33" s="21"/>
-      <c r="AH33" s="21"/>
-      <c r="AI33" s="21"/>
-      <c r="AJ33" s="21"/>
-      <c r="AK33" s="21"/>
-      <c r="AL33" s="21"/>
-      <c r="AM33" s="21"/>
-      <c r="AN33" s="21"/>
-      <c r="AO33" s="21"/>
-      <c r="AP33" s="21"/>
-      <c r="AQ33" s="21"/>
-      <c r="AR33" s="21"/>
-      <c r="AS33" s="21"/>
-      <c r="AT33" s="21"/>
-      <c r="AU33" s="21"/>
-      <c r="AV33" s="21"/>
-      <c r="AW33" s="21"/>
-      <c r="AX33" s="21"/>
-      <c r="AY33" s="21"/>
-      <c r="AZ33" s="21"/>
-      <c r="BA33" s="21"/>
-      <c r="BB33" s="21"/>
-      <c r="BC33" s="21"/>
-      <c r="BD33" s="21"/>
-      <c r="BE33" s="21"/>
-      <c r="BF33" s="21"/>
-      <c r="BG33" s="21"/>
-      <c r="BH33" s="21"/>
-      <c r="BI33" s="21"/>
-      <c r="BJ33" s="21"/>
-      <c r="BK33" s="21"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="19"/>
+      <c r="AL36" s="19"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="19"/>
+      <c r="AP36" s="19"/>
+      <c r="AQ36" s="19"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="19"/>
+      <c r="AT36" s="19"/>
+      <c r="AU36" s="19"/>
+      <c r="AV36" s="19"/>
+      <c r="AW36" s="19"/>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="19"/>
+      <c r="AZ36" s="19"/>
+      <c r="BA36" s="19"/>
+      <c r="BB36" s="19"/>
+      <c r="BC36" s="19"/>
+      <c r="BD36" s="19"/>
+      <c r="BE36" s="19"/>
+      <c r="BF36" s="19"/>
+      <c r="BG36" s="19"/>
+      <c r="BH36" s="19"/>
+      <c r="BI36" s="19"/>
+      <c r="BJ36" s="19"/>
+      <c r="BK36" s="19"/>
     </row>
-    <row r="35" spans="1:63" ht="30" customHeight="1">
-      <c r="C35" s="10"/>
-      <c r="F35" s="35"/>
+    <row r="37" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="21"/>
+      <c r="BA37" s="21"/>
+      <c r="BB37" s="21"/>
+      <c r="BC37" s="21"/>
+      <c r="BD37" s="21"/>
+      <c r="BE37" s="21"/>
+      <c r="BF37" s="21"/>
+      <c r="BG37" s="21"/>
+      <c r="BH37" s="21"/>
+      <c r="BI37" s="21"/>
+      <c r="BJ37" s="21"/>
+      <c r="BK37" s="21"/>
     </row>
-    <row r="36" spans="1:63" ht="30" customHeight="1">
-      <c r="C36" s="11"/>
+    <row r="39" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="10"/>
+      <c r="F39" s="35"/>
+    </row>
+    <row r="40" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4422,7 +4760,7 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D33">
+  <conditionalFormatting sqref="D7:D37">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4436,12 +4774,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BK33">
+  <conditionalFormatting sqref="H5:BK37">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK33">
+  <conditionalFormatting sqref="H7:BK37">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(Início_da_tarefa&lt;=H$5,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=H$5)</formula>
     </cfRule>
@@ -4449,7 +4787,7 @@
       <formula>AND(Término_da_tarefa&gt;=H$5,Início_da_tarefa&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Semana de exibição" prompt="Alterar esse número rola a exibição do Gráfico de Gantt." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -4477,7 +4815,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D33</xm:sqref>
+          <xm:sqref>D7:D37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4491,88 +4829,88 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="94.42578125" style="23" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="94.44140625" style="23" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="25" customFormat="1" ht="15.75">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:2" s="29" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>30</v>
+    <row r="3" spans="1:2" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>29</v>
       </c>
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:2" s="26" customFormat="1" ht="26.25">
+    <row r="4" spans="1:2" s="26" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1">
-      <c r="A5" s="28" t="s">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1">
-      <c r="A6" s="27" t="s">
+    <row r="7" spans="1:2" s="23" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="23" customFormat="1" ht="204.95" customHeight="1">
-      <c r="A7" s="32" t="s">
+    <row r="8" spans="1:2" s="26" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A8" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="26" customFormat="1" ht="26.25">
-      <c r="A8" s="27" t="s">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="28" t="s">
+    <row r="10" spans="1:2" s="23" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="23" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A10" s="31" t="s">
+    <row r="11" spans="1:2" s="26" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A11" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="26" customFormat="1" ht="26.25">
-      <c r="A11" s="27" t="s">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="28" t="s">
+    <row r="13" spans="1:2" s="23" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="23" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A13" s="31" t="s">
+    <row r="14" spans="1:2" s="26" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A14" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="26" customFormat="1" ht="26.25">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1">
-      <c r="A15" s="28" t="s">
+    <row r="16" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="75" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
